--- a/Documents/Baselines_NIST_vs_FedRAMP_20160420_NED_FINAL.xlsx
+++ b/Documents/Baselines_NIST_vs_FedRAMP_20160420_NED_FINAL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsg\Documents\RMF CLOUD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\source\repos\CloudSecurityRubiksCube\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-4164" windowWidth="23040" windowHeight="13548" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-4170" windowWidth="23040" windowHeight="13545" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="137">
   <si>
     <t>AC</t>
   </si>
@@ -892,28 +892,6 @@
   </si>
   <si>
     <t>RA-1, RA-2, RA-3, RA-5</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SC-1, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC-5, SC-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, SC-12, SC13, SC-SC-15, SC-20, SC-21, SC-22, SC-39</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">SA-4(1), SA-4(2), SA-4(9), SA-8, SA-9(2), SA-10, SA-11, SA-17, </t>
@@ -3039,6 +3017,308 @@
   </si>
   <si>
     <r>
+      <t>SC-3,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC-5(2), SC-5(3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, SC-7(10), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC-7(14),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SC-7(18), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC-7(20),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SC-7(21), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC-12(1),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC-23(1),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SC-24</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SI-2(1), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI-4(7),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SI-4(11), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI-4(13)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, SI-4(18), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SI-4(19), SI-4(20), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SI-4(22), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI-4(24)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SI-5(1), SI-7(2), SI-7(5), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI-7(6), SI-7(9)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SI-7(10), SI-7(12), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SI-7(14), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI-7(15),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF6600"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SI-13</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">SC-1, </t>
     </r>
     <r>
@@ -3056,316 +3336,14 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, SC-12, SC13, SC-15, SC-20, SC-21, SC-22, SC-39</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SC-3,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC-5(2), SC-5(3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, SC-7(10), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC-7(14),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SC-7(18), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC-7(20),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SC-7(21), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC-12(1),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC-23(1),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SC-24</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SI-2(1), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI-4(7),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SI-4(11), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI-4(13)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, SI-4(18), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SI-4(19), SI-4(20), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SI-4(22), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI-4(24)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SI-5(1), SI-7(2), SI-7(5), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI-7(6), SI-7(9)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SI-7(10), SI-7(12), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SI-7(14), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI-7(15),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF6600"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SI-13</t>
+      <t>, SC-12, SC-13, SC-15, SC-20, SC-21, SC-22, SC-39</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3708,15 +3686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3730,6 +3699,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="108">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -4175,58 +4153,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.296875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="33.19921875" customWidth="1"/>
-    <col min="10" max="10" width="28.296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.25" customWidth="1"/>
+    <col min="10" max="10" width="28.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="23"/>
       <c r="J1" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="126" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -4269,16 +4247,16 @@
         <v>58</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -4297,11 +4275,11 @@
       <c r="G4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>126</v>
+      <c r="I4" s="21" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="78" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -4318,19 +4296,19 @@
         <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4352,14 +4330,14 @@
       <c r="H6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>122</v>
+      <c r="I6" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
@@ -4374,17 +4352,17 @@
         <v>64</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -4404,14 +4382,14 @@
         <v>67</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -4419,26 +4397,26 @@
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4458,16 +4436,16 @@
         <v>71</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -4484,17 +4462,17 @@
         <v>74</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>129</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -4511,19 +4489,19 @@
         <v>76</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -4540,19 +4518,19 @@
         <v>78</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -4571,12 +4549,12 @@
       <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="25" t="s">
-        <v>133</v>
+      <c r="I14" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
@@ -4600,7 +4578,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
@@ -4623,13 +4601,13 @@
         <v>48</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>115</v>
-      </c>
     </row>
-    <row r="17" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -4643,7 +4621,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>54</v>
@@ -4652,13 +4630,13 @@
         <v>49</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -4666,31 +4644,31 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
@@ -4698,40 +4676,40 @@
         <v>19</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
